--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agrn-Lrp4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H2">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I2">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J2">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.051757666666667</v>
+        <v>0.6795853333333334</v>
       </c>
       <c r="N2">
-        <v>3.155273</v>
+        <v>2.038756</v>
       </c>
       <c r="O2">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799233</v>
       </c>
       <c r="P2">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799234</v>
       </c>
       <c r="Q2">
-        <v>19.40940032242689</v>
+        <v>25.71707591058356</v>
       </c>
       <c r="R2">
-        <v>174.684602901842</v>
+        <v>231.453683195252</v>
       </c>
       <c r="S2">
-        <v>0.04183143439474393</v>
+        <v>0.04181969148528805</v>
       </c>
       <c r="T2">
-        <v>0.04183143439474392</v>
+        <v>0.04181969148528806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H3">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I3">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J3">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>7.71965</v>
       </c>
       <c r="O3">
-        <v>0.3014579903540003</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="P3">
-        <v>0.3014579903540004</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="Q3">
-        <v>47.48678710178889</v>
+        <v>97.37645164656112</v>
       </c>
       <c r="R3">
-        <v>427.3810839161</v>
+        <v>876.38806481905</v>
       </c>
       <c r="S3">
-        <v>0.1023442448641956</v>
+        <v>0.1583482189013319</v>
       </c>
       <c r="T3">
-        <v>0.1023442448641955</v>
+        <v>0.1583482189013319</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H4">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I4">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J4">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.872404</v>
+        <v>2.840162333333334</v>
       </c>
       <c r="N4">
-        <v>8.617212</v>
+        <v>8.520487000000001</v>
       </c>
       <c r="O4">
-        <v>0.3365084442914349</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="P4">
-        <v>0.3365084442914351</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="Q4">
-        <v>53.008065346872</v>
+        <v>107.4782911609532</v>
       </c>
       <c r="R4">
-        <v>477.072588121848</v>
+        <v>967.304620448579</v>
       </c>
       <c r="S4">
-        <v>0.1142437876036717</v>
+        <v>0.174775273570946</v>
       </c>
       <c r="T4">
-        <v>0.1142437876036717</v>
+        <v>0.174775273570946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.45425133333334</v>
+        <v>37.84230566666667</v>
       </c>
       <c r="H5">
-        <v>55.362754</v>
+        <v>113.526917</v>
       </c>
       <c r="I5">
-        <v>0.3394975357727733</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="J5">
-        <v>0.3394975357727731</v>
+        <v>0.5048163536019187</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.038526333333333</v>
+        <v>2.110486666666667</v>
       </c>
       <c r="N5">
-        <v>6.115579</v>
+        <v>6.33146</v>
       </c>
       <c r="O5">
-        <v>0.2388178421549069</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="P5">
-        <v>0.238817842154907</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="Q5">
-        <v>37.61947730495179</v>
+        <v>79.86568154542445</v>
       </c>
       <c r="R5">
-        <v>338.575295744566</v>
+        <v>718.7911339088199</v>
       </c>
       <c r="S5">
-        <v>0.08107806891016203</v>
+        <v>0.1298731696443527</v>
       </c>
       <c r="T5">
-        <v>0.08107806891016202</v>
+        <v>0.1298731696443527</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H6">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I6">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J6">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.051757666666667</v>
+        <v>0.6795853333333334</v>
       </c>
       <c r="N6">
-        <v>3.155273</v>
+        <v>2.038756</v>
       </c>
       <c r="O6">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799233</v>
       </c>
       <c r="P6">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799234</v>
       </c>
       <c r="Q6">
-        <v>16.70854483168445</v>
+        <v>10.79610101150222</v>
       </c>
       <c r="R6">
-        <v>150.37690348516</v>
+        <v>97.16490910352</v>
       </c>
       <c r="S6">
-        <v>0.03601050961634512</v>
+        <v>0.01755602445296761</v>
       </c>
       <c r="T6">
-        <v>0.03601050961634512</v>
+        <v>0.01755602445296761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H7">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I7">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J7">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>7.71965</v>
       </c>
       <c r="O7">
-        <v>0.3014579903540003</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="P7">
-        <v>0.3014579903540004</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="Q7">
-        <v>40.87890908644445</v>
+        <v>40.87890908644444</v>
       </c>
       <c r="R7">
-        <v>367.910181778</v>
+        <v>367.9101817779999</v>
       </c>
       <c r="S7">
-        <v>0.08810284579490224</v>
+        <v>0.06647502897274191</v>
       </c>
       <c r="T7">
-        <v>0.08810284579490224</v>
+        <v>0.06647502897274191</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H8">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I8">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J8">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.872404</v>
+        <v>2.840162333333334</v>
       </c>
       <c r="N8">
-        <v>8.617212</v>
+        <v>8.520487000000001</v>
       </c>
       <c r="O8">
-        <v>0.3365084442914349</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="P8">
-        <v>0.3365084442914351</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="Q8">
-        <v>45.63189081456001</v>
+        <v>45.11968981044889</v>
       </c>
       <c r="R8">
-        <v>410.6870173310401</v>
+        <v>406.07720829404</v>
       </c>
       <c r="S8">
-        <v>0.09834654421093976</v>
+        <v>0.07337115286144719</v>
       </c>
       <c r="T8">
-        <v>0.09834654421093977</v>
+        <v>0.0733711528614472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.88630666666667</v>
+        <v>15.88630666666666</v>
       </c>
       <c r="H9">
-        <v>47.65892000000001</v>
+        <v>47.65891999999999</v>
       </c>
       <c r="I9">
-        <v>0.292255798864192</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="J9">
-        <v>0.2922557988641919</v>
+        <v>0.2119233292577262</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.038526333333333</v>
+        <v>2.110486666666667</v>
       </c>
       <c r="N9">
-        <v>6.115579</v>
+        <v>6.33146</v>
       </c>
       <c r="O9">
-        <v>0.2388178421549069</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="P9">
-        <v>0.238817842154907</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="Q9">
-        <v>32.38465447940889</v>
+        <v>33.52783840257777</v>
       </c>
       <c r="R9">
-        <v>291.4618903146801</v>
+        <v>301.7505456232</v>
       </c>
       <c r="S9">
-        <v>0.06979589924200481</v>
+        <v>0.05452112297056945</v>
       </c>
       <c r="T9">
-        <v>0.06979589924200481</v>
+        <v>0.05452112297056946</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H10">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J10">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.051757666666667</v>
+        <v>0.6795853333333334</v>
       </c>
       <c r="N10">
-        <v>3.155273</v>
+        <v>2.038756</v>
       </c>
       <c r="O10">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799233</v>
       </c>
       <c r="P10">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799234</v>
       </c>
       <c r="Q10">
-        <v>15.97720583933956</v>
+        <v>12.75361167878845</v>
       </c>
       <c r="R10">
-        <v>143.794852554056</v>
+        <v>114.782505109096</v>
       </c>
       <c r="S10">
-        <v>0.03443431671134103</v>
+        <v>0.0207392204146586</v>
       </c>
       <c r="T10">
-        <v>0.03443431671134103</v>
+        <v>0.02073922041465861</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H11">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I11">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J11">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>7.71965</v>
       </c>
       <c r="O11">
-        <v>0.3014579903540003</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="P11">
-        <v>0.3014579903540004</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="Q11">
-        <v>39.08962459275556</v>
+        <v>48.29092760298889</v>
       </c>
       <c r="R11">
-        <v>351.8066213348</v>
+        <v>434.6183484269</v>
       </c>
       <c r="S11">
-        <v>0.08424655267569676</v>
+        <v>0.07852804498136082</v>
       </c>
       <c r="T11">
-        <v>0.08424655267569676</v>
+        <v>0.07852804498136083</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H12">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I12">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J12">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.872404</v>
+        <v>2.840162333333334</v>
       </c>
       <c r="N12">
-        <v>8.617212</v>
+        <v>8.520487000000001</v>
       </c>
       <c r="O12">
-        <v>0.3365084442914349</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="P12">
-        <v>0.3365084442914351</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="Q12">
-        <v>43.634566608096</v>
+        <v>53.30063161661578</v>
       </c>
       <c r="R12">
-        <v>392.711099472864</v>
+        <v>479.7056845495421</v>
       </c>
       <c r="S12">
-        <v>0.09404188074273395</v>
+        <v>0.08667454954552345</v>
       </c>
       <c r="T12">
-        <v>0.09404188074273397</v>
+        <v>0.08667454954552346</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.19095733333334</v>
+        <v>18.76675533333333</v>
       </c>
       <c r="H13">
-        <v>45.572872</v>
+        <v>56.300266</v>
       </c>
       <c r="I13">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672444</v>
       </c>
       <c r="J13">
-        <v>0.2794636578608068</v>
+        <v>0.2503485141672445</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.038526333333333</v>
+        <v>2.110486666666667</v>
       </c>
       <c r="N13">
-        <v>6.115579</v>
+        <v>6.33146</v>
       </c>
       <c r="O13">
-        <v>0.2388178421549069</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="P13">
-        <v>0.238817842154907</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="Q13">
-        <v>30.96716655254312</v>
+        <v>39.60698690759556</v>
       </c>
       <c r="R13">
-        <v>278.704498972888</v>
+        <v>356.46288216836</v>
       </c>
       <c r="S13">
-        <v>0.06674090773103508</v>
+        <v>0.06440669922570151</v>
       </c>
       <c r="T13">
-        <v>0.06674090773103508</v>
+        <v>0.06440669922570152</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H14">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I14">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J14">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.051757666666667</v>
+        <v>0.6795853333333334</v>
       </c>
       <c r="N14">
-        <v>3.155273</v>
+        <v>2.038756</v>
       </c>
       <c r="O14">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799233</v>
       </c>
       <c r="P14">
-        <v>0.1232157231996577</v>
+        <v>0.08284139605799234</v>
       </c>
       <c r="Q14">
-        <v>5.075809845032667</v>
+        <v>1.676640087775556</v>
       </c>
       <c r="R14">
-        <v>45.682288605294</v>
+        <v>15.08976078998</v>
       </c>
       <c r="S14">
-        <v>0.01093946247722766</v>
+        <v>0.002726459705078071</v>
       </c>
       <c r="T14">
-        <v>0.01093946247722766</v>
+        <v>0.002726459705078072</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H15">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I15">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J15">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>7.71965</v>
       </c>
       <c r="O15">
-        <v>0.3014579903540003</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="P15">
-        <v>0.3014579903540004</v>
+        <v>0.3136748993401273</v>
       </c>
       <c r="Q15">
-        <v>12.41841053696667</v>
+        <v>6.348515787861111</v>
       </c>
       <c r="R15">
-        <v>111.7656948327</v>
+        <v>57.13664209075</v>
       </c>
       <c r="S15">
-        <v>0.02676434701920577</v>
+        <v>0.01032360648469259</v>
       </c>
       <c r="T15">
-        <v>0.02676434701920577</v>
+        <v>0.01032360648469259</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H16">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I16">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J16">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.872404</v>
+        <v>2.840162333333334</v>
       </c>
       <c r="N16">
-        <v>8.617212</v>
+        <v>8.520487000000001</v>
       </c>
       <c r="O16">
-        <v>0.3365084442914349</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="P16">
-        <v>0.3365084442914351</v>
+        <v>0.3462155540800247</v>
       </c>
       <c r="Q16">
-        <v>13.862296386504</v>
+        <v>7.007111234287223</v>
       </c>
       <c r="R16">
-        <v>124.760667478536</v>
+        <v>63.06400110858501</v>
       </c>
       <c r="S16">
-        <v>0.02987623173408952</v>
+        <v>0.01139457810210812</v>
       </c>
       <c r="T16">
-        <v>0.02987623173408953</v>
+        <v>0.01139457810210812</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.826026</v>
+        <v>2.467151666666667</v>
       </c>
       <c r="H17">
-        <v>14.478078</v>
+        <v>7.401455</v>
       </c>
       <c r="I17">
-        <v>0.08878300750222795</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="J17">
-        <v>0.08878300750222794</v>
+        <v>0.03291180297311068</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.038526333333333</v>
+        <v>2.110486666666667</v>
       </c>
       <c r="N17">
-        <v>6.115579</v>
+        <v>6.33146</v>
       </c>
       <c r="O17">
-        <v>0.2388178421549069</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="P17">
-        <v>0.238817842154907</v>
+        <v>0.2572681505218555</v>
       </c>
       <c r="Q17">
-        <v>9.837981086351332</v>
+        <v>5.206890697144444</v>
       </c>
       <c r="R17">
-        <v>88.54182977716201</v>
+        <v>46.8620162743</v>
       </c>
       <c r="S17">
-        <v>0.02120296627170499</v>
+        <v>0.008467158681231891</v>
       </c>
       <c r="T17">
-        <v>0.02120296627170499</v>
+        <v>0.008467158681231891</v>
       </c>
     </row>
   </sheetData>
